--- a/results/aucs/harmonic_centrality/aucs_harmonic_centrality_results.xlsx
+++ b/results/aucs/harmonic_centrality/aucs_harmonic_centrality_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>coauthor</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>shannon_entropy</t>
+  </si>
+  <si>
+    <t>cluster_class</t>
   </si>
   <si>
     <t>U1</t>
@@ -604,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,10 +632,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1.32</v>
@@ -652,10 +658,13 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1.33</v>
@@ -675,10 +684,13 @@
       <c r="G3">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -698,10 +710,13 @@
       <c r="G4">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1.46</v>
@@ -721,10 +736,13 @@
       <c r="G5">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.82</v>
@@ -744,10 +762,13 @@
       <c r="G6">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.75</v>
@@ -767,10 +788,13 @@
       <c r="G7">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>4.58</v>
@@ -790,10 +814,13 @@
       <c r="G8">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0.6899999999999999</v>
@@ -813,10 +840,13 @@
       <c r="G9">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0.93</v>
@@ -836,10 +866,13 @@
       <c r="G10">
         <v>2.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1.51</v>
@@ -859,10 +892,13 @@
       <c r="G11">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0.64</v>
@@ -882,10 +918,13 @@
       <c r="G12">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0.88</v>
@@ -905,10 +944,13 @@
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0.36</v>
@@ -928,10 +970,13 @@
       <c r="G14">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1.54</v>
@@ -951,10 +996,13 @@
       <c r="G15">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>4.24</v>
@@ -974,10 +1022,13 @@
       <c r="G16">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2.54</v>
@@ -997,10 +1048,13 @@
       <c r="G17">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>3.26</v>
@@ -1020,10 +1074,13 @@
       <c r="G18">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1043,10 +1100,13 @@
       <c r="G19">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>0.52</v>
@@ -1066,10 +1126,13 @@
       <c r="G20">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1089,10 +1152,13 @@
       <c r="G21">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0.35</v>
@@ -1112,10 +1178,13 @@
       <c r="G22">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1.46</v>
@@ -1135,10 +1204,13 @@
       <c r="G23">
         <v>2.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0.49</v>
@@ -1158,10 +1230,13 @@
       <c r="G24">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>3.41</v>
@@ -1181,10 +1256,13 @@
       <c r="G25">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>0.39</v>
@@ -1204,10 +1282,13 @@
       <c r="G26">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0.79</v>
@@ -1227,10 +1308,13 @@
       <c r="G27">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1.51</v>
@@ -1250,10 +1334,13 @@
       <c r="G28">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>0.52</v>
@@ -1273,10 +1360,13 @@
       <c r="G29">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>1.14</v>
@@ -1296,10 +1386,13 @@
       <c r="G30">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>1.45</v>
@@ -1319,10 +1412,13 @@
       <c r="G31">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0.72</v>
@@ -1342,10 +1438,13 @@
       <c r="G32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>1.44</v>
@@ -1365,10 +1464,13 @@
       <c r="G33">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1388,10 +1490,13 @@
       <c r="G34">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0.33</v>
@@ -1411,10 +1516,13 @@
       <c r="G35">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>0.77</v>
@@ -1434,10 +1542,13 @@
       <c r="G36">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>1.55</v>
@@ -1457,10 +1568,13 @@
       <c r="G37">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1480,10 +1594,13 @@
       <c r="G38">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>3.41</v>
@@ -1503,10 +1620,13 @@
       <c r="G39">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>1.37</v>
@@ -1526,10 +1646,13 @@
       <c r="G40">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>0.87</v>
@@ -1549,10 +1672,13 @@
       <c r="G41">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>5.3</v>
@@ -1572,10 +1698,13 @@
       <c r="G42">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>0.7</v>
@@ -1595,10 +1724,13 @@
       <c r="G43">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>0.96</v>
@@ -1618,10 +1750,13 @@
       <c r="G44">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0.72</v>
@@ -1641,10 +1776,13 @@
       <c r="G45">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>0.33</v>
@@ -1664,10 +1802,13 @@
       <c r="G46">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1687,10 +1828,13 @@
       <c r="G47">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>0.86</v>
@@ -1710,10 +1854,13 @@
       <c r="G48">
         <v>2.05</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0.79</v>
@@ -1733,10 +1880,13 @@
       <c r="G49">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1.42</v>
@@ -1756,10 +1906,13 @@
       <c r="G50">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>0.74</v>
@@ -1779,10 +1932,13 @@
       <c r="G51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0.74</v>
@@ -1802,10 +1958,13 @@
       <c r="G52">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>3.13</v>
@@ -1825,10 +1984,13 @@
       <c r="G53">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>0.5600000000000001</v>
@@ -1848,10 +2010,13 @@
       <c r="G54">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>3.1</v>
@@ -1871,10 +2036,13 @@
       <c r="G55">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>0.79</v>
@@ -1894,10 +2062,13 @@
       <c r="G56">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0.74</v>
@@ -1917,10 +2088,13 @@
       <c r="G57">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>0.36</v>
@@ -1940,10 +2114,13 @@
       <c r="G58">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>2.75</v>
@@ -1963,10 +2140,13 @@
       <c r="G59">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>0.02</v>
@@ -1986,10 +2166,13 @@
       <c r="G60">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>3.84</v>
@@ -2009,10 +2192,13 @@
       <c r="G61">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>3.97</v>
@@ -2032,10 +2218,13 @@
       <c r="G62">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>1.35</v>
@@ -2054,6 +2243,9 @@
       </c>
       <c r="G63">
         <v>1.79</v>
+      </c>
+      <c r="H63">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>

--- a/results/aucs/harmonic_centrality/aucs_harmonic_centrality_results.xlsx
+++ b/results/aucs/harmonic_centrality/aucs_harmonic_centrality_results.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="LayerCentrality" sheetId="1" r:id="rId1"/>
+    <sheet name="Layer Centrality" sheetId="1" r:id="rId1"/>
+    <sheet name="cluster_0" sheetId="2" r:id="rId2"/>
+    <sheet name="cluster_-1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>coauthor</t>
   </si>
@@ -2265,4 +2267,1742 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1.32</v>
+      </c>
+      <c r="C2">
+        <v>21.21</v>
+      </c>
+      <c r="D2">
+        <v>16.93</v>
+      </c>
+      <c r="E2">
+        <v>21.47</v>
+      </c>
+      <c r="F2">
+        <v>39.07</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.33</v>
+      </c>
+      <c r="C3">
+        <v>23.81</v>
+      </c>
+      <c r="D3">
+        <v>23.49</v>
+      </c>
+      <c r="E3">
+        <v>18.11</v>
+      </c>
+      <c r="F3">
+        <v>33.26</v>
+      </c>
+      <c r="G3">
+        <v>2.04</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.46</v>
+      </c>
+      <c r="C4">
+        <v>30.35</v>
+      </c>
+      <c r="D4">
+        <v>3.73</v>
+      </c>
+      <c r="E4">
+        <v>30.96</v>
+      </c>
+      <c r="F4">
+        <v>33.51</v>
+      </c>
+      <c r="G4">
+        <v>1.84</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.82</v>
+      </c>
+      <c r="C5">
+        <v>25.49</v>
+      </c>
+      <c r="D5">
+        <v>20.61</v>
+      </c>
+      <c r="E5">
+        <v>19.75</v>
+      </c>
+      <c r="F5">
+        <v>33.32</v>
+      </c>
+      <c r="G5">
+        <v>2.02</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>17.72</v>
+      </c>
+      <c r="D6">
+        <v>17.37</v>
+      </c>
+      <c r="E6">
+        <v>37.93</v>
+      </c>
+      <c r="F6">
+        <v>26.22</v>
+      </c>
+      <c r="G6">
+        <v>1.97</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>4.58</v>
+      </c>
+      <c r="C7">
+        <v>19.91</v>
+      </c>
+      <c r="D7">
+        <v>15.65</v>
+      </c>
+      <c r="E7">
+        <v>23.91</v>
+      </c>
+      <c r="F7">
+        <v>35.94</v>
+      </c>
+      <c r="G7">
+        <v>2.11</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C8">
+        <v>26.96</v>
+      </c>
+      <c r="D8">
+        <v>2.76</v>
+      </c>
+      <c r="E8">
+        <v>33.42</v>
+      </c>
+      <c r="F8">
+        <v>36.17</v>
+      </c>
+      <c r="G8">
+        <v>1.76</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.93</v>
+      </c>
+      <c r="C9">
+        <v>21.25</v>
+      </c>
+      <c r="D9">
+        <v>18.14</v>
+      </c>
+      <c r="E9">
+        <v>29.95</v>
+      </c>
+      <c r="F9">
+        <v>29.72</v>
+      </c>
+      <c r="G9">
+        <v>2.03</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.51</v>
+      </c>
+      <c r="C10">
+        <v>8.77</v>
+      </c>
+      <c r="D10">
+        <v>2.79</v>
+      </c>
+      <c r="E10">
+        <v>28.8</v>
+      </c>
+      <c r="F10">
+        <v>58.13</v>
+      </c>
+      <c r="G10">
+        <v>1.52</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.64</v>
+      </c>
+      <c r="C11">
+        <v>19.31</v>
+      </c>
+      <c r="D11">
+        <v>2.45</v>
+      </c>
+      <c r="E11">
+        <v>23.28</v>
+      </c>
+      <c r="F11">
+        <v>54.32</v>
+      </c>
+      <c r="G11">
+        <v>1.6</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0.88</v>
+      </c>
+      <c r="C12">
+        <v>28.11</v>
+      </c>
+      <c r="D12">
+        <v>15.75</v>
+      </c>
+      <c r="E12">
+        <v>21.8</v>
+      </c>
+      <c r="F12">
+        <v>33.46</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.36</v>
+      </c>
+      <c r="C13">
+        <v>2.69</v>
+      </c>
+      <c r="D13">
+        <v>24.9</v>
+      </c>
+      <c r="E13">
+        <v>42.28</v>
+      </c>
+      <c r="F13">
+        <v>29.76</v>
+      </c>
+      <c r="G13">
+        <v>1.71</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.54</v>
+      </c>
+      <c r="C14">
+        <v>3.96</v>
+      </c>
+      <c r="D14">
+        <v>20.07</v>
+      </c>
+      <c r="E14">
+        <v>34.93</v>
+      </c>
+      <c r="F14">
+        <v>39.5</v>
+      </c>
+      <c r="G14">
+        <v>1.8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>4.24</v>
+      </c>
+      <c r="C15">
+        <v>22.25</v>
+      </c>
+      <c r="D15">
+        <v>3.82</v>
+      </c>
+      <c r="E15">
+        <v>28.93</v>
+      </c>
+      <c r="F15">
+        <v>40.77</v>
+      </c>
+      <c r="G15">
+        <v>1.9</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>2.54</v>
+      </c>
+      <c r="C16">
+        <v>16.05</v>
+      </c>
+      <c r="D16">
+        <v>3.98</v>
+      </c>
+      <c r="E16">
+        <v>46.62</v>
+      </c>
+      <c r="F16">
+        <v>30.8</v>
+      </c>
+      <c r="G16">
+        <v>1.78</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>3.26</v>
+      </c>
+      <c r="C17">
+        <v>6.35</v>
+      </c>
+      <c r="D17">
+        <v>21.92</v>
+      </c>
+      <c r="E17">
+        <v>29.41</v>
+      </c>
+      <c r="F17">
+        <v>39.07</v>
+      </c>
+      <c r="G17">
+        <v>1.94</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.52</v>
+      </c>
+      <c r="C18">
+        <v>5.09</v>
+      </c>
+      <c r="D18">
+        <v>20.16</v>
+      </c>
+      <c r="E18">
+        <v>28.22</v>
+      </c>
+      <c r="F18">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>1.75</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.35</v>
+      </c>
+      <c r="C19">
+        <v>7.38</v>
+      </c>
+      <c r="D19">
+        <v>10.91</v>
+      </c>
+      <c r="E19">
+        <v>38.88</v>
+      </c>
+      <c r="F19">
+        <v>42.47</v>
+      </c>
+      <c r="G19">
+        <v>1.71</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1.46</v>
+      </c>
+      <c r="C20">
+        <v>31.26</v>
+      </c>
+      <c r="D20">
+        <v>17.17</v>
+      </c>
+      <c r="E20">
+        <v>22.47</v>
+      </c>
+      <c r="F20">
+        <v>27.64</v>
+      </c>
+      <c r="G20">
+        <v>2.05</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.49</v>
+      </c>
+      <c r="C21">
+        <v>4.39</v>
+      </c>
+      <c r="D21">
+        <v>26.32</v>
+      </c>
+      <c r="E21">
+        <v>22.71</v>
+      </c>
+      <c r="F21">
+        <v>46.09</v>
+      </c>
+      <c r="G21">
+        <v>1.74</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>3.41</v>
+      </c>
+      <c r="C22">
+        <v>21.36</v>
+      </c>
+      <c r="D22">
+        <v>15.92</v>
+      </c>
+      <c r="E22">
+        <v>27.37</v>
+      </c>
+      <c r="F22">
+        <v>31.94</v>
+      </c>
+      <c r="G22">
+        <v>2.1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.39</v>
+      </c>
+      <c r="C23">
+        <v>5.97</v>
+      </c>
+      <c r="D23">
+        <v>17.12</v>
+      </c>
+      <c r="E23">
+        <v>23.07</v>
+      </c>
+      <c r="F23">
+        <v>53.45</v>
+      </c>
+      <c r="G23">
+        <v>1.68</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.79</v>
+      </c>
+      <c r="C24">
+        <v>20.47</v>
+      </c>
+      <c r="D24">
+        <v>14.94</v>
+      </c>
+      <c r="E24">
+        <v>33.95</v>
+      </c>
+      <c r="F24">
+        <v>29.85</v>
+      </c>
+      <c r="G24">
+        <v>1.98</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1.51</v>
+      </c>
+      <c r="C25">
+        <v>4.59</v>
+      </c>
+      <c r="D25">
+        <v>15.35</v>
+      </c>
+      <c r="E25">
+        <v>30.59</v>
+      </c>
+      <c r="F25">
+        <v>47.96</v>
+      </c>
+      <c r="G25">
+        <v>1.74</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.52</v>
+      </c>
+      <c r="C26">
+        <v>7.56</v>
+      </c>
+      <c r="D26">
+        <v>24.74</v>
+      </c>
+      <c r="E26">
+        <v>23.06</v>
+      </c>
+      <c r="F26">
+        <v>44.12</v>
+      </c>
+      <c r="G26">
+        <v>1.83</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1.14</v>
+      </c>
+      <c r="C27">
+        <v>3.16</v>
+      </c>
+      <c r="D27">
+        <v>12.64</v>
+      </c>
+      <c r="E27">
+        <v>23.65</v>
+      </c>
+      <c r="F27">
+        <v>59.4</v>
+      </c>
+      <c r="G27">
+        <v>1.55</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>1.45</v>
+      </c>
+      <c r="C28">
+        <v>24.94</v>
+      </c>
+      <c r="D28">
+        <v>19.05</v>
+      </c>
+      <c r="E28">
+        <v>24.96</v>
+      </c>
+      <c r="F28">
+        <v>29.6</v>
+      </c>
+      <c r="G28">
+        <v>2.06</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.72</v>
+      </c>
+      <c r="C29">
+        <v>24.23</v>
+      </c>
+      <c r="D29">
+        <v>14.91</v>
+      </c>
+      <c r="E29">
+        <v>28.06</v>
+      </c>
+      <c r="F29">
+        <v>32.09</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1.44</v>
+      </c>
+      <c r="C30">
+        <v>28.16</v>
+      </c>
+      <c r="D30">
+        <v>10.95</v>
+      </c>
+      <c r="E30">
+        <v>23.33</v>
+      </c>
+      <c r="F30">
+        <v>36.11</v>
+      </c>
+      <c r="G30">
+        <v>1.97</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>3.91</v>
+      </c>
+      <c r="D31">
+        <v>0.43</v>
+      </c>
+      <c r="E31">
+        <v>34.91</v>
+      </c>
+      <c r="F31">
+        <v>60.76</v>
+      </c>
+      <c r="G31">
+        <v>1.18</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.33</v>
+      </c>
+      <c r="C32">
+        <v>4.04</v>
+      </c>
+      <c r="D32">
+        <v>23.35</v>
+      </c>
+      <c r="E32">
+        <v>40.91</v>
+      </c>
+      <c r="F32">
+        <v>31.36</v>
+      </c>
+      <c r="G32">
+        <v>1.76</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.77</v>
+      </c>
+      <c r="C33">
+        <v>22.65</v>
+      </c>
+      <c r="D33">
+        <v>7.54</v>
+      </c>
+      <c r="E33">
+        <v>29.17</v>
+      </c>
+      <c r="F33">
+        <v>39.87</v>
+      </c>
+      <c r="G33">
+        <v>1.87</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1.55</v>
+      </c>
+      <c r="C34">
+        <v>12.66</v>
+      </c>
+      <c r="D34">
+        <v>4.4</v>
+      </c>
+      <c r="E34">
+        <v>39.51</v>
+      </c>
+      <c r="F34">
+        <v>41.88</v>
+      </c>
+      <c r="G34">
+        <v>1.72</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>18.65</v>
+      </c>
+      <c r="D35">
+        <v>18.28</v>
+      </c>
+      <c r="E35">
+        <v>30.79</v>
+      </c>
+      <c r="F35">
+        <v>31.28</v>
+      </c>
+      <c r="G35">
+        <v>2.01</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>3.41</v>
+      </c>
+      <c r="C36">
+        <v>28.59</v>
+      </c>
+      <c r="D36">
+        <v>12.37</v>
+      </c>
+      <c r="E36">
+        <v>26.57</v>
+      </c>
+      <c r="F36">
+        <v>29.06</v>
+      </c>
+      <c r="G36">
+        <v>2.08</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.37</v>
+      </c>
+      <c r="C37">
+        <v>4.46</v>
+      </c>
+      <c r="D37">
+        <v>5.16</v>
+      </c>
+      <c r="E37">
+        <v>45.98</v>
+      </c>
+      <c r="F37">
+        <v>43.02</v>
+      </c>
+      <c r="G37">
+        <v>1.54</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.87</v>
+      </c>
+      <c r="C38">
+        <v>17.91</v>
+      </c>
+      <c r="D38">
+        <v>12.9</v>
+      </c>
+      <c r="E38">
+        <v>28.19</v>
+      </c>
+      <c r="F38">
+        <v>40.13</v>
+      </c>
+      <c r="G38">
+        <v>1.93</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>5.3</v>
+      </c>
+      <c r="C39">
+        <v>10.28</v>
+      </c>
+      <c r="D39">
+        <v>20.49</v>
+      </c>
+      <c r="E39">
+        <v>32.03</v>
+      </c>
+      <c r="F39">
+        <v>31.9</v>
+      </c>
+      <c r="G39">
+        <v>2.08</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.7</v>
+      </c>
+      <c r="C40">
+        <v>18.75</v>
+      </c>
+      <c r="D40">
+        <v>20.6</v>
+      </c>
+      <c r="E40">
+        <v>26.52</v>
+      </c>
+      <c r="F40">
+        <v>33.42</v>
+      </c>
+      <c r="G40">
+        <v>2.01</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0.96</v>
+      </c>
+      <c r="C41">
+        <v>21.83</v>
+      </c>
+      <c r="D41">
+        <v>17.73</v>
+      </c>
+      <c r="E41">
+        <v>31.96</v>
+      </c>
+      <c r="F41">
+        <v>27.52</v>
+      </c>
+      <c r="G41">
+        <v>2.02</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.72</v>
+      </c>
+      <c r="C42">
+        <v>19.75</v>
+      </c>
+      <c r="D42">
+        <v>14.3</v>
+      </c>
+      <c r="E42">
+        <v>33</v>
+      </c>
+      <c r="F42">
+        <v>32.24</v>
+      </c>
+      <c r="G42">
+        <v>1.97</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.33</v>
+      </c>
+      <c r="C43">
+        <v>3.31</v>
+      </c>
+      <c r="D43">
+        <v>13.89</v>
+      </c>
+      <c r="E43">
+        <v>39.26</v>
+      </c>
+      <c r="F43">
+        <v>43.21</v>
+      </c>
+      <c r="G43">
+        <v>1.64</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>3.95</v>
+      </c>
+      <c r="D44">
+        <v>1.5</v>
+      </c>
+      <c r="E44">
+        <v>42.25</v>
+      </c>
+      <c r="F44">
+        <v>52.3</v>
+      </c>
+      <c r="G44">
+        <v>1.29</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.86</v>
+      </c>
+      <c r="C45">
+        <v>21.87</v>
+      </c>
+      <c r="D45">
+        <v>23.79</v>
+      </c>
+      <c r="E45">
+        <v>26.24</v>
+      </c>
+      <c r="F45">
+        <v>27.24</v>
+      </c>
+      <c r="G45">
+        <v>2.05</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.79</v>
+      </c>
+      <c r="C46">
+        <v>21.22</v>
+      </c>
+      <c r="D46">
+        <v>10.02</v>
+      </c>
+      <c r="E46">
+        <v>25.82</v>
+      </c>
+      <c r="F46">
+        <v>42.15</v>
+      </c>
+      <c r="G46">
+        <v>1.89</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1.42</v>
+      </c>
+      <c r="C47">
+        <v>9.74</v>
+      </c>
+      <c r="D47">
+        <v>15.58</v>
+      </c>
+      <c r="E47">
+        <v>35.5</v>
+      </c>
+      <c r="F47">
+        <v>37.76</v>
+      </c>
+      <c r="G47">
+        <v>1.89</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.74</v>
+      </c>
+      <c r="C48">
+        <v>23.53</v>
+      </c>
+      <c r="D48">
+        <v>15.66</v>
+      </c>
+      <c r="E48">
+        <v>30.33</v>
+      </c>
+      <c r="F48">
+        <v>29.75</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0.74</v>
+      </c>
+      <c r="C49">
+        <v>20.79</v>
+      </c>
+      <c r="D49">
+        <v>2.5</v>
+      </c>
+      <c r="E49">
+        <v>26.62</v>
+      </c>
+      <c r="F49">
+        <v>49.35</v>
+      </c>
+      <c r="G49">
+        <v>1.67</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>3.13</v>
+      </c>
+      <c r="C50">
+        <v>6.84</v>
+      </c>
+      <c r="D50">
+        <v>19.57</v>
+      </c>
+      <c r="E50">
+        <v>37.87</v>
+      </c>
+      <c r="F50">
+        <v>32.58</v>
+      </c>
+      <c r="G50">
+        <v>1.94</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C51">
+        <v>6.75</v>
+      </c>
+      <c r="D51">
+        <v>32.08</v>
+      </c>
+      <c r="E51">
+        <v>25.57</v>
+      </c>
+      <c r="F51">
+        <v>35.04</v>
+      </c>
+      <c r="G51">
+        <v>1.86</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>3.1</v>
+      </c>
+      <c r="C52">
+        <v>20.82</v>
+      </c>
+      <c r="D52">
+        <v>17.84</v>
+      </c>
+      <c r="E52">
+        <v>27.14</v>
+      </c>
+      <c r="F52">
+        <v>31.11</v>
+      </c>
+      <c r="G52">
+        <v>2.11</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>0.79</v>
+      </c>
+      <c r="C53">
+        <v>23.02</v>
+      </c>
+      <c r="D53">
+        <v>17.64</v>
+      </c>
+      <c r="E53">
+        <v>28.77</v>
+      </c>
+      <c r="F53">
+        <v>29.78</v>
+      </c>
+      <c r="G53">
+        <v>2.02</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>0.74</v>
+      </c>
+      <c r="C54">
+        <v>6.53</v>
+      </c>
+      <c r="D54">
+        <v>0.64</v>
+      </c>
+      <c r="E54">
+        <v>40.7</v>
+      </c>
+      <c r="F54">
+        <v>51.38</v>
+      </c>
+      <c r="G54">
+        <v>1.38</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>0.36</v>
+      </c>
+      <c r="C55">
+        <v>3.05</v>
+      </c>
+      <c r="D55">
+        <v>25.17</v>
+      </c>
+      <c r="E55">
+        <v>33.85</v>
+      </c>
+      <c r="F55">
+        <v>37.58</v>
+      </c>
+      <c r="G55">
+        <v>1.74</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>2.75</v>
+      </c>
+      <c r="C56">
+        <v>27.55</v>
+      </c>
+      <c r="D56">
+        <v>24.51</v>
+      </c>
+      <c r="E56">
+        <v>20.97</v>
+      </c>
+      <c r="F56">
+        <v>24.21</v>
+      </c>
+      <c r="G56">
+        <v>2.12</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>0.02</v>
+      </c>
+      <c r="C57">
+        <v>6.32</v>
+      </c>
+      <c r="D57">
+        <v>0.72</v>
+      </c>
+      <c r="E57">
+        <v>49.07</v>
+      </c>
+      <c r="F57">
+        <v>43.87</v>
+      </c>
+      <c r="G57">
+        <v>1.33</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>3.84</v>
+      </c>
+      <c r="C58">
+        <v>3.9</v>
+      </c>
+      <c r="D58">
+        <v>3.16</v>
+      </c>
+      <c r="E58">
+        <v>39.92</v>
+      </c>
+      <c r="F58">
+        <v>49.19</v>
+      </c>
+      <c r="G58">
+        <v>1.55</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>3.97</v>
+      </c>
+      <c r="C59">
+        <v>5.78</v>
+      </c>
+      <c r="D59">
+        <v>17.92</v>
+      </c>
+      <c r="E59">
+        <v>31.64</v>
+      </c>
+      <c r="F59">
+        <v>40.69</v>
+      </c>
+      <c r="G59">
+        <v>1.92</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>1.416551724137931</v>
+      </c>
+      <c r="C60">
+        <v>15.19310344827587</v>
+      </c>
+      <c r="D60">
+        <v>14.38413793103448</v>
+      </c>
+      <c r="E60">
+        <v>30.7401724137931</v>
+      </c>
+      <c r="F60">
+        <v>38.265</v>
+      </c>
+      <c r="G60">
+        <v>1.84051724137931</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F59">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.71</v>
+      </c>
+      <c r="D2">
+        <v>0.65</v>
+      </c>
+      <c r="E2">
+        <v>58.79</v>
+      </c>
+      <c r="F2">
+        <v>35.84</v>
+      </c>
+      <c r="G2">
+        <v>1.24</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.54</v>
+      </c>
+      <c r="E3">
+        <v>16.58</v>
+      </c>
+      <c r="F3">
+        <v>81.98</v>
+      </c>
+      <c r="G3">
+        <v>0.77</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4.85</v>
+      </c>
+      <c r="F4">
+        <v>95.15000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.28</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.87</v>
+      </c>
+      <c r="D5">
+        <v>0.3966666666666667</v>
+      </c>
+      <c r="E5">
+        <v>26.74</v>
+      </c>
+      <c r="F5">
+        <v>70.99000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.7633333333333333</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>